--- a/总结/前端/BOM/BOM.xlsx
+++ b/总结/前端/BOM/BOM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansong/GitHub/总结/前端/BOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" tabRatio="797"/>
+    <workbookView xWindow="28800" yWindow="-10335" windowWidth="20730" windowHeight="11760" tabRatio="797" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="495">
   <si>
     <t>返回浏览器的代码名。</t>
   </si>
@@ -803,10 +798,6 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -10975,7 +10966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11201,74 +11192,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11320,7 +11243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -11355,7 +11278,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -11567,977 +11490,977 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="79.83203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="27"/>
+    <col min="1" max="1" width="54.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="79.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="27" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="40.5">
+      <c r="A3" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5">
+      <c r="A4" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="B6" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="25" t="s">
+      <c r="B26" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" s="25" t="s">
+      <c r="C38" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27.75">
+      <c r="A41" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.5">
+      <c r="A43" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.5">
+      <c r="A45" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="42">
+      <c r="A48" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="27" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A41" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A43" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A45" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A48" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="B48" s="25" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="26" t="s">
         <v>264</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="26" t="s">
-        <v>265</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="41.25">
+      <c r="A53" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B53" s="25" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="28" t="s">
+      <c r="C53" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="41.25">
+      <c r="A54" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="85.5">
+      <c r="A55" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="269.25">
+      <c r="A58" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="B52" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A53" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A54" s="28" t="s">
+      <c r="B58" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="42">
+      <c r="A62" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="96.75">
+      <c r="A63" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B63" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="84" x14ac:dyDescent="0.15">
-      <c r="A55" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="28" t="s">
+      <c r="C63" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="42">
+      <c r="A64" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B57" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="266" x14ac:dyDescent="0.15">
-      <c r="A58" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="B58" s="18" t="s">
+      <c r="B64" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="96.75">
+      <c r="A65" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="42">
+      <c r="A66" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="69.75">
+      <c r="A67" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="69">
+      <c r="A68" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="69">
+      <c r="A69" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="69">
+      <c r="A70" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="B61" s="25" t="s">
+      <c r="B70" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="69">
+      <c r="A71" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="69">
+      <c r="A72" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="69">
+      <c r="A73" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="70.5">
+      <c r="A74" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="41.25">
+      <c r="A75" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="41.25">
+      <c r="A76" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="162">
+      <c r="A77" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="27">
+      <c r="A78" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="B78" s="25" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A62" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="98" x14ac:dyDescent="0.15">
-      <c r="A63" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A64" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="98" x14ac:dyDescent="0.15">
-      <c r="A65" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="B65" s="18" t="s">
+      <c r="D78" s="27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="42">
+      <c r="A79" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="96.75">
+      <c r="A80" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="C80" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C65" s="25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A66" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A67" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A68" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A69" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A70" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A71" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A72" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A73" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A74" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A75" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A76" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="168" x14ac:dyDescent="0.15">
-      <c r="A77" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A78" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="D78" s="27" t="s">
+      <c r="D80" s="27" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A79" s="33" t="s">
+    <row r="81" spans="1:4" ht="42">
+      <c r="A81" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B81" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="B79" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="C79" s="34" t="s">
+      <c r="C81" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="B82" s="30" t="s">
         <v>494</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="98" x14ac:dyDescent="0.15">
-      <c r="A80" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="B80" s="34" t="s">
-        <v>490</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A81" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>495</v>
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="35" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="41.25">
       <c r="A83" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="41.25">
+      <c r="A84" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A84" s="28" t="s">
+      <c r="B84" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="42">
+      <c r="A86" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B84" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A86" s="28" t="s">
+      <c r="B86" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="170.25">
+      <c r="A88" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="168" x14ac:dyDescent="0.15">
-      <c r="A88" s="28" t="s">
+      <c r="B88" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="C88" s="25" t="s">
+      <c r="B89" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="D88" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="28" t="s">
+      <c r="D89" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="27.75">
+      <c r="A90" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A90" s="28" t="s">
-        <v>148</v>
-      </c>
       <c r="B90" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -12559,105 +12482,105 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="35.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="28.5">
       <c r="A3" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:3" ht="28.5">
+      <c r="A8" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="99">
       <c r="A9" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="99">
+      <c r="A10" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="98" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>482</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -12675,16 +12598,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="26.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
@@ -12696,9 +12619,9 @@
       </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>43</v>
@@ -12707,9 +12630,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>12</v>
@@ -12718,9 +12641,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>13</v>
@@ -12729,9 +12652,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>14</v>
@@ -12740,9 +12663,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>53</v>
@@ -12751,12 +12674,12 @@
         <v>52</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>55</v>
@@ -12765,12 +12688,12 @@
         <v>58</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>15</v>
@@ -12779,9 +12702,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>16</v>
@@ -12790,9 +12713,9 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>17</v>
@@ -12801,9 +12724,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>18</v>
@@ -12812,9 +12735,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>54</v>
@@ -12823,10 +12746,10 @@
         <v>57</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
         <v>42</v>
       </c>
@@ -12834,38 +12757,38 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="42.75">
       <c r="A14" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="42.75">
       <c r="A15" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42.75">
       <c r="A16" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -12881,65 +12804,65 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="72.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="4"/>
+    <col min="4" max="4" width="41.375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="27">
+      <c r="A4" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="27">
+      <c r="A5" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>387</v>
-      </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>0</v>
@@ -12948,9 +12871,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -12959,9 +12882,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>2</v>
@@ -12970,9 +12893,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -12981,52 +12904,50 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="57">
       <c r="A10" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27.75">
       <c r="A13" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -13034,10 +12955,10 @@
         <v>69</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -13045,21 +12966,21 @@
         <v>71</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -13067,21 +12988,21 @@
         <v>65</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="42">
       <c r="A18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5">
       <c r="A19" s="4" t="s">
         <v>72</v>
       </c>
@@ -13089,10 +13010,10 @@
         <v>73</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="14" t="s">
         <v>42</v>
       </c>
@@ -13100,130 +13021,130 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27">
       <c r="A23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="D23" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="42">
+      <c r="A24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="B24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27.75">
+      <c r="A25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:4" ht="94.5">
+      <c r="A26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="99">
+      <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="108">
+      <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="98" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="B28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="98" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="112" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="18" t="s">
+    <row r="29" spans="1:4" ht="71.25">
+      <c r="A29" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="84.75">
+      <c r="A30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="84" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="19" t="s">
         <v>33</v>
       </c>
@@ -13231,7 +13152,7 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="57">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -13239,7 +13160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="56" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="57">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -13247,7 +13168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="56" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="57">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -13255,7 +13176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="56" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="57">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -13263,7 +13184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="56" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="57">
       <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
@@ -13271,7 +13192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="68" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="75">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
@@ -13279,7 +13200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="28.5">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -13287,7 +13208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="68" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="93.75">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -13314,16 +13235,16 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="29.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
@@ -13331,110 +13252,110 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="A8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="A9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
-        <v>118</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="14"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="40.5">
       <c r="A11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="18" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="C12" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -13451,228 +13372,228 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="4"/>
+    <col min="4" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.5">
+      <c r="A2" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.75">
+      <c r="A17" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="27.75">
+      <c r="A18" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="14" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="18" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B26" s="18" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="18" t="s">
         <v>428</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -13691,176 +13612,176 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B4" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>159</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>161</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2" ht="54.75">
+      <c r="A17" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="21"/>
-    </row>
-    <row r="17" spans="1:2" ht="56" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B17" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B18" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="21" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="21"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="B21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="B22" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -13878,13 +13799,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -13892,7 +13813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -13916,31 +13837,31 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="20.83203125" style="4"/>
+    <col min="1" max="1" width="41.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="20.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="42">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
